--- a/Acceptance Test Plan.xlsx
+++ b/Acceptance Test Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonyj\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonyj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{183AD6BF-C378-4200-B288-C60A0003842C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC969C74-BAE2-4842-B877-7C66927460F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="68">
   <si>
     <t>Instructions</t>
   </si>
@@ -144,6 +144,96 @@
   </si>
   <si>
     <t>TJ; 6/22; works fine</t>
+  </si>
+  <si>
+    <t>TJ;7/2</t>
+  </si>
+  <si>
+    <t>Update Gameboard</t>
+  </si>
+  <si>
+    <t>Given I am red player when I enter game, I expect to see that I can move my piece first</t>
+  </si>
+  <si>
+    <t>Given it's my turn when I drag a piece, I expect to place my piece on any free black space</t>
+  </si>
+  <si>
+    <t>Given it's my turn when I drag a piece to a spot, I expect to have the option to backup or submit</t>
+  </si>
+  <si>
+    <t>Given it's my turn when I haven't touched any pieces, I expect to be able to resign</t>
+  </si>
+  <si>
+    <t>Given I have made a valid move when I click submit, I expect it to be the opponents turn</t>
+  </si>
+  <si>
+    <t>Given I have made an invalid move when I click submit, I expect an error message to appear stating why the move was invalid</t>
+  </si>
+  <si>
+    <t>Given I am waiting for my turn when the opponent submits their move, I expect for my board to refresh to a new board and to be able to move pieces</t>
+  </si>
+  <si>
+    <t>TJ; 7/6</t>
+  </si>
+  <si>
+    <t>EY; 7/8</t>
+  </si>
+  <si>
+    <t>TJ; 7/8</t>
+  </si>
+  <si>
+    <t>Backup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given I have made a move when I click backup, I expect my board to display the original orientation. </t>
+  </si>
+  <si>
+    <t>TJ; 7/11</t>
+  </si>
+  <si>
+    <t>Resignation</t>
+  </si>
+  <si>
+    <t>Leaving the Game</t>
+  </si>
+  <si>
+    <t>Given that I have left the game, I expect to be reconnected to the game if it's still in progress</t>
+  </si>
+  <si>
+    <t>Generic Move</t>
+  </si>
+  <si>
+    <t>Given that I made a generic move, I expect the move to be appropriately checked before being made.</t>
+  </si>
+  <si>
+    <t>Capturing Pieces</t>
+  </si>
+  <si>
+    <t>Given that when I jump a piece, I expect that piece to be removed from play.</t>
+  </si>
+  <si>
+    <t>Given that I have a jump, I expect that I will be forced to make a jump move.</t>
+  </si>
+  <si>
+    <t>Promoting to King</t>
+  </si>
+  <si>
+    <t>Given that I move my piece to the other side, I expect to be able to promote into a King.</t>
+  </si>
+  <si>
+    <t>Given that when I have a King piece, I can move and jump backwards.</t>
+  </si>
+  <si>
+    <t>TJ;7/2; Submit Move not working, making subsequent stories all fail. Validate move works though with "fake moves" manually passed in instead of via the board.</t>
+  </si>
+  <si>
+    <t>Multiple Games</t>
+  </si>
+  <si>
+    <t>Given that there are a bunch of players in the lobby, there can be more than one game running at a time.</t>
+  </si>
+  <si>
+    <t>Given that players are done with a game, they are automatically returned to lobby and available to be challenged again.</t>
   </si>
 </sst>
 </file>
@@ -667,11 +757,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H597"/>
+  <dimension ref="A1:H595"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -726,7 +816,12 @@
       <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
@@ -740,7 +835,12 @@
       <c r="D3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
@@ -754,7 +854,12 @@
       <c r="D4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:8" ht="78" x14ac:dyDescent="0.3">
@@ -768,7 +873,12 @@
       <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
@@ -782,7 +892,12 @@
       <c r="D6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
@@ -796,7 +911,12 @@
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -810,7 +930,12 @@
       <c r="D8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
@@ -826,8 +951,12 @@
       <c r="D9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="11"/>
+      <c r="E9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="G9" s="12"/>
       <c r="H9" s="11"/>
     </row>
@@ -842,7 +971,12 @@
       <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
@@ -856,7 +990,12 @@
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
@@ -870,7 +1009,12 @@
       <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
@@ -884,7 +1028,12 @@
       <c r="D13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
@@ -898,7 +1047,12 @@
       <c r="D14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
@@ -912,7 +1066,12 @@
       <c r="D15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="63" thickBot="1" x14ac:dyDescent="0.35">
@@ -926,87 +1085,234 @@
       <c r="D16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="8"/>
-      <c r="E17" s="8"/>
+    <row r="17" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="C19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="E19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="C21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="E21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="E22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="C23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="E23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="C24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="E24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="C25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="E25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="C26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="E26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="C27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="E27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="C28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="E28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="C29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="E29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="C30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="E30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="C31" s="8"/>
       <c r="E31" s="8"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="C32" s="8"/>
       <c r="E32" s="8"/>
       <c r="G32" s="8"/>
@@ -3826,18 +4132,8 @@
       <c r="E595" s="8"/>
       <c r="G595" s="8"/>
     </row>
-    <row r="596" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C596" s="8"/>
-      <c r="E596" s="8"/>
-      <c r="G596" s="8"/>
-    </row>
-    <row r="597" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C597" s="8"/>
-      <c r="E597" s="8"/>
-      <c r="G597" s="8"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C597 E2:E597 G2:G597">
+  <conditionalFormatting sqref="C2:C595 E2:E595 G2:G595">
     <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
@@ -3845,7 +4141,7 @@
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D597 F2:F597 H2:H597">
+  <conditionalFormatting sqref="D2:D595 F2:F595 H2:H595">
     <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>AND(ISBLANK(D2),C2="Pass")</formula>
     </cfRule>
@@ -3854,7 +4150,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E597 C2:C597 G2:G597" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E595 C2:C595 G2:G595" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
